--- a/data/WheatBreedingSampleData.xlsx
+++ b/data/WheatBreedingSampleData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/prabahar_ravichandran_agr_gc_ca/Documents/Documents/GitHub/DataVisualization/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praba\Documents\Github\DataVisualization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{827ABB5F-096D-4606-8195-C515611EDB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFAA5980-FAC6-4E95-B5C1-2A4B33DD4F80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E991D-6EAC-4EFD-99B7-F824903F1BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WheatBreedingSampleData" sheetId="1" r:id="rId1"/>
+    <sheet name="Breeding" sheetId="1" r:id="rId1"/>
     <sheet name="WeedScience" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -715,10 +715,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1018,11 +1014,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1076,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1105,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1192,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1225,7 +1221,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1279,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1308,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1366,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1395,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +1482,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1515,7 +1511,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1540,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1569,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1660,7 +1656,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1685,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1718,7 +1714,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1747,7 +1743,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1776,7 +1772,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1805,7 +1801,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1863,7 +1859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1921,7 +1917,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1950,7 +1946,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1979,7 +1975,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2008,7 +2004,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2037,7 +2033,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2066,7 +2062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2091,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2153,7 +2149,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2182,7 +2178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2211,7 +2207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2269,7 +2265,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2298,7 +2294,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2327,7 +2323,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2443,7 +2439,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2497,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2526,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2613,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2646,7 +2642,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2675,7 +2671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2700,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +2729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2758,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2791,7 +2787,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2820,7 +2816,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2849,7 +2845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2878,7 +2874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2907,7 +2903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2965,7 +2961,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2994,7 +2990,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +3019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3052,7 +3048,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -3081,7 +3077,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3139,7 +3135,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3168,7 +3164,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3197,7 +3193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3226,7 +3222,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3255,7 +3251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3284,7 +3280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3313,7 +3309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +3338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3371,7 +3367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3400,7 +3396,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3429,7 +3425,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3454,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3487,7 +3483,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3512,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +3541,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3574,7 +3570,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3603,7 +3599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3632,7 +3628,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3661,7 +3657,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3690,7 +3686,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3744,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3777,7 +3773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +3802,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3835,7 +3831,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3864,7 +3860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3893,7 +3889,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3922,7 +3918,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3951,7 +3947,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3980,7 +3976,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4005,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4038,7 +4034,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4067,7 +4063,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4096,7 +4092,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4125,7 +4121,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -4154,7 +4150,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -4183,7 +4179,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -4212,7 +4208,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -4241,7 +4237,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -4270,7 +4266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -4299,7 +4295,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4324,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -4357,7 +4353,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4386,7 +4382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -4415,7 +4411,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -4444,7 +4440,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4502,7 +4498,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4531,7 +4527,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4589,7 +4585,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4618,7 +4614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4647,7 +4643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -4676,7 +4672,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -4705,7 +4701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4734,7 +4730,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -4792,7 +4788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4821,7 +4817,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -4850,7 +4846,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -4879,7 +4875,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4908,7 +4904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4937,7 +4933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -4966,7 +4962,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4995,7 +4991,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5020,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -5053,7 +5049,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5082,7 +5078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5111,7 +5107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5140,7 +5136,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5169,7 +5165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -5198,7 +5194,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -5227,7 +5223,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5256,7 +5252,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -5285,7 +5281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -5314,7 +5310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -5372,7 +5368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -5401,7 +5397,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -5430,7 +5426,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -5488,7 +5484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -5517,7 +5513,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -5546,7 +5542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -5575,7 +5571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -5604,7 +5600,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5633,7 +5629,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -5662,7 +5658,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -5700,13 +5696,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE3C14C-44B2-47EF-A948-00A2D51106A6}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -5741,7 +5737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5811,7 +5807,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -5846,7 +5842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -5881,7 +5877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5916,7 +5912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -5951,7 +5947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -5986,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6021,7 +6017,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -6056,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6091,7 +6087,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6126,7 +6122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6196,7 +6192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -6231,7 +6227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -6266,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -6301,7 +6297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -6336,7 +6332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -6371,7 +6367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -6406,7 +6402,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -6441,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -6476,7 +6472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6511,7 +6507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6546,7 +6542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -6581,7 +6577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -6616,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -6651,7 +6647,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
